--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/3.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/3.xlsx
@@ -479,13 +479,13 @@
         <v>-18.97884214602003</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.66764344725983</v>
+        <v>-21.64860565452006</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.054752122606516</v>
+        <v>-0.06070204396355149</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.9221296593911</v>
+        <v>-8.918751355646062</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.79678020785586</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.81326740579776</v>
+        <v>-21.79480162686142</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1894638178174905</v>
+        <v>-0.1948221693436293</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.431180478822368</v>
+        <v>-8.429298211178606</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.41055669527934</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.98135146188229</v>
+        <v>-21.96663555121288</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3524633067604349</v>
+        <v>-0.3558953895810091</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.326296614506441</v>
+        <v>-8.324370345800878</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.83390816377827</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.09673202394149</v>
+        <v>-22.08289613450812</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3808684366572107</v>
+        <v>-0.3834547212898087</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.787513390751814</v>
+        <v>-7.789904115109735</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.08999625421153</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.01313978453097</v>
+        <v>-22.00365511120916</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5029958281927461</v>
+        <v>-0.5056114468665456</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.09357753407564</v>
+        <v>-7.096183374735705</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.19320704318775</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.28095469169371</v>
+        <v>-22.27213003429893</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6580946820387559</v>
+        <v>-0.6587840320069909</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.498424061145482</v>
+        <v>-6.503298400991796</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.18599824805779</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.66839381887612</v>
+        <v>-22.65952027141267</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8291659213189768</v>
+        <v>-0.8293565925867865</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.07889838189551</v>
+        <v>-6.084031839105771</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.09785017395364</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.93324109887063</v>
+        <v>-22.92653338144923</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9616971194673073</v>
+        <v>-0.9600397461394231</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.749232648859436</v>
+        <v>-5.756018590390713</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.94303875732402</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.37468908491185</v>
+        <v>-23.37001030534022</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.059980824512899</v>
+        <v>-1.058680348686299</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.450563219359601</v>
+        <v>-5.456694033970713</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.75873858232936</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.77882417054478</v>
+        <v>-23.77709835112076</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.325033442795825</v>
+        <v>-1.322447158163228</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.056934609483679</v>
+        <v>-5.063422321596074</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.55891716239936</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.24269803108453</v>
+        <v>-24.24166156162875</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.244961288329492</v>
+        <v>-1.242130553353549</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.903268234649675</v>
+        <v>-4.90764878480243</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.343891966142696</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.82502274999591</v>
+        <v>-24.82569254393668</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.179678379635577</v>
+        <v>-1.175688950032175</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.839051129452747</v>
+        <v>-4.839867593599521</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.140830688559811</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42445410393461</v>
+        <v>-25.42551012941787</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.114419915975996</v>
+        <v>-1.109878028596633</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.711369826116396</v>
+        <v>-4.711130264779917</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.954353260352117</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.03603952894447</v>
+        <v>-26.03829825011699</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.073254478156572</v>
+        <v>-1.068121020946312</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.735839305485305</v>
+        <v>-4.733619696367726</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.783320820520252</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.81015509823805</v>
+        <v>-26.81225737119082</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9799233370671662</v>
+        <v>-0.9744427603693545</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.696057456609219</v>
+        <v>-4.691021779536296</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.653345119495705</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.56377350624209</v>
+        <v>-27.5671933665455</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8557572296681273</v>
+        <v>-0.8505699933823305</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.730754738343713</v>
+        <v>-4.72413502304591</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.570545213006654</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.45280029293564</v>
+        <v>-28.45410565776911</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6840553085020743</v>
+        <v>-0.679933875713265</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.992473053943405</v>
+        <v>-4.983931958946904</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.541404055882658</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.0979878621418</v>
+        <v>-29.10139794443148</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.433273701263672</v>
+        <v>-0.4287855929598441</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.298686221038889</v>
+        <v>-5.285280564209808</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.594457346964365</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.51999471237674</v>
+        <v>-29.52350013030031</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2297150113528013</v>
+        <v>-0.2251095668841674</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.620109088497345</v>
+        <v>-5.607104330231351</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.7388411622778345</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.11764157880902</v>
+        <v>-30.12021075191758</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1841149748972145</v>
+        <v>0.1882804087478261</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.953133569250991</v>
+        <v>-5.937791865702612</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.01888043375711003</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.67331143228197</v>
+        <v>-30.67621794686435</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2448168841568305</v>
+        <v>0.2474373918374969</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.22566147903343</v>
+        <v>-6.20970376061982</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6617424460095425</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.9968512397138</v>
+        <v>-31.00068177659403</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5290197423374634</v>
+        <v>0.5317331411486012</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.524374909595067</v>
+        <v>-6.507273163574598</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.191886434419232</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.2022677522341</v>
+        <v>-31.20669230344866</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7181851960321366</v>
+        <v>0.7220621784776001</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.788870181095166</v>
+        <v>-6.771196421271268</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.613938932795913</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.49783266237344</v>
+        <v>-31.50358213444893</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9611590593040756</v>
+        <v>0.9637013428748714</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.848388950692988</v>
+        <v>-6.829140930657944</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.926656346555012</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.4102558823664</v>
+        <v>-31.415707125023</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9967412512814826</v>
+        <v>0.9972399299819079</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.031345365666679</v>
+        <v>-7.012796473613604</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.139981307381455</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.50904071061585</v>
+        <v>-31.51499796548318</v>
       </c>
       <c r="F27" t="n">
-        <v>1.239529332292479</v>
+        <v>1.24119159462723</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.289093807690436</v>
+        <v>-7.271058261358387</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.263208053770395</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.33352291959017</v>
+        <v>-31.33802325041116</v>
       </c>
       <c r="F28" t="n">
-        <v>1.399693197252613</v>
+        <v>1.401223456401957</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.476919673503573</v>
+        <v>-7.457295199939777</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.30203419302407</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.13578214785092</v>
+        <v>-31.14099871817792</v>
       </c>
       <c r="F29" t="n">
-        <v>1.420319917224127</v>
+        <v>1.422055514661882</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.782819944159575</v>
+        <v>-7.76211500007819</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.265694287697677</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.03239187513284</v>
+        <v>-31.03705354318044</v>
       </c>
       <c r="F30" t="n">
-        <v>1.550988403756163</v>
+        <v>1.55199065016388</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.827833030383261</v>
+        <v>-7.805597827152532</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.160570355420071</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.74850924690199</v>
+        <v>-30.75340803178264</v>
       </c>
       <c r="F31" t="n">
-        <v>1.451795343433325</v>
+        <v>1.454352294024722</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.764569281525382</v>
+        <v>-7.744079453746141</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.990423010133744</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.34087852135922</v>
+        <v>-30.34644954468407</v>
       </c>
       <c r="F32" t="n">
-        <v>1.434400257000842</v>
+        <v>1.435182498099548</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.757475332561488</v>
+        <v>-7.736961059747913</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.756289104181259</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.84883909225917</v>
+        <v>-29.85294341352394</v>
       </c>
       <c r="F33" t="n">
-        <v>1.371874748179867</v>
+        <v>1.374192137434784</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.00981164398357</v>
+        <v>-7.989727603774282</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.459388211695566</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.27774686662453</v>
+        <v>-29.28040648636014</v>
       </c>
       <c r="F34" t="n">
-        <v>1.374539256922335</v>
+        <v>1.376230853298288</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.021667485635838</v>
+        <v>-8.000747425252309</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.103027962577354</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.79416297490081</v>
+        <v>-28.79879530890721</v>
       </c>
       <c r="F35" t="n">
-        <v>1.39131343948272</v>
+        <v>1.392618804316187</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.991512091280707</v>
+        <v>-7.972479187547806</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6867737761072162</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.15966766371259</v>
+        <v>-28.16526068756833</v>
       </c>
       <c r="F36" t="n">
-        <v>1.317816999252388</v>
+        <v>1.319073474017185</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.811264186111287</v>
+        <v>-7.793580648273655</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.2144067517594756</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.51749661174331</v>
+        <v>-27.52205561064671</v>
       </c>
       <c r="F37" t="n">
-        <v>1.406562251900628</v>
+        <v>1.408019175946969</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.718695730093119</v>
+        <v>-7.702542451404832</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.3064193357802773</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.93217737612595</v>
+        <v>-26.93777528898856</v>
       </c>
       <c r="F38" t="n">
-        <v>1.238913317427248</v>
+        <v>1.241220928668431</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.642603227216455</v>
+        <v>-7.62880644983802</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.8737755402764552</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.16097809942848</v>
+        <v>-26.16722136119753</v>
       </c>
       <c r="F39" t="n">
-        <v>1.324250932289248</v>
+        <v>1.326074531850607</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.552044153020589</v>
+        <v>-7.539039394754595</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.478885996757641</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.5343834233372</v>
+        <v>-25.53800617742558</v>
       </c>
       <c r="F40" t="n">
-        <v>1.319376592442934</v>
+        <v>1.32126863810043</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.207114940546005</v>
+        <v>-7.19729781475724</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.108745936624039</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.95848774845582</v>
+        <v>-24.96296607874591</v>
       </c>
       <c r="F41" t="n">
-        <v>1.378289125189259</v>
+        <v>1.379149590397836</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.191699901894623</v>
+        <v>-7.182801909396837</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.757747825350313</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.28230387571341</v>
+        <v>-24.28588751774686</v>
       </c>
       <c r="F42" t="n">
-        <v>1.372319647804756</v>
+        <v>1.374529478908601</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.929277569306096</v>
+        <v>-6.920262240643504</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.413024392742825</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.60099632377448</v>
+        <v>-23.60420351227918</v>
       </c>
       <c r="F43" t="n">
-        <v>1.325473184005977</v>
+        <v>1.327463009800811</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.859076319704064</v>
+        <v>-6.85290150403115</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.061071843719275</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.91153390838153</v>
+        <v>-22.9148486550373</v>
       </c>
       <c r="F44" t="n">
-        <v>1.437817672800815</v>
+        <v>1.439499491163034</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.77865704575018</v>
+        <v>-6.772169333637784</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.697882503643106</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.08140987642058</v>
+        <v>-22.08413305324545</v>
       </c>
       <c r="F45" t="n">
-        <v>1.4801858063095</v>
+        <v>1.48253252960562</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.616302905713669</v>
+        <v>-6.612122804842456</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.312835277205099</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.55812969344094</v>
+        <v>-21.56113154365722</v>
       </c>
       <c r="F46" t="n">
-        <v>1.468012179210882</v>
+        <v>1.471297591825449</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.505786905487057</v>
+        <v>-6.501210795059624</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.897252867596178</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.86453606724545</v>
+        <v>-20.86870150109606</v>
       </c>
       <c r="F47" t="n">
-        <v>1.554552489762144</v>
+        <v>1.556737875831655</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.479523160597989</v>
+        <v>-6.475856405447803</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.451667711192312</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.21560351877922</v>
+        <v>-20.22147032701952</v>
       </c>
       <c r="F48" t="n">
-        <v>1.600069143693122</v>
+        <v>1.602626094284518</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.44882508648063</v>
+        <v>-6.446512586232579</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.969586483652222</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.44883612680662</v>
+        <v>-19.45371046665293</v>
       </c>
       <c r="F49" t="n">
-        <v>1.745253091613028</v>
+        <v>1.747169582304859</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.202389806346916</v>
+        <v>-6.201876460625889</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.447528116079508</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.04207075547929</v>
+        <v>-19.0488224739625</v>
       </c>
       <c r="F50" t="n">
-        <v>1.733367915919558</v>
+        <v>1.736399100177045</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.220752916139048</v>
+        <v>-6.219256880037772</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.888951915601814</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.46646353200306</v>
+        <v>-18.47265301469658</v>
       </c>
       <c r="F51" t="n">
-        <v>1.716041275583211</v>
+        <v>1.717669314869894</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.283483763248434</v>
+        <v>-6.280687251320558</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.289667615263278</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.00711689182207</v>
+        <v>-18.0115756660847</v>
       </c>
       <c r="F52" t="n">
-        <v>1.715870160342869</v>
+        <v>1.717820874082768</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.283605988420106</v>
+        <v>-6.28242773776518</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.64945530650134</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.60181333354795</v>
+        <v>-17.60676100849727</v>
       </c>
       <c r="F53" t="n">
-        <v>1.802821147470952</v>
+        <v>1.804473631791969</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.189741945582206</v>
+        <v>-6.188817923284359</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.971704215952572</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.97132211898374</v>
+        <v>-16.97657780136567</v>
       </c>
       <c r="F54" t="n">
-        <v>1.855138409953808</v>
+        <v>1.857397131126323</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.195349636458558</v>
+        <v>-6.19388782340535</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.252569085846089</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.76810565955355</v>
+        <v>-16.77225153737669</v>
       </c>
       <c r="F55" t="n">
-        <v>1.847995570921246</v>
+        <v>1.84932049178218</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.420884412236211</v>
+        <v>-6.421197308675694</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.491810963635292</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.22055644648654</v>
+        <v>-16.22324540026334</v>
       </c>
       <c r="F56" t="n">
-        <v>1.885636034789624</v>
+        <v>1.885709369892628</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.322390479895343</v>
+        <v>-6.322092250476461</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.688751921266537</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.12644306429843</v>
+        <v>-16.12869200745721</v>
       </c>
       <c r="F57" t="n">
-        <v>1.925285880480304</v>
+        <v>1.925520552809916</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.503366847087933</v>
+        <v>-6.503616186438146</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.837419869639721</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.91400104891037</v>
+        <v>-15.91535041480564</v>
       </c>
       <c r="F58" t="n">
-        <v>1.814427649773008</v>
+        <v>1.813723632784172</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.661262212861819</v>
+        <v>-6.660670643030921</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.936147659589102</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66225141831232</v>
+        <v>-15.66209008108571</v>
       </c>
       <c r="F59" t="n">
-        <v>1.86987387665069</v>
+        <v>1.869463200073869</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.425533857766648</v>
+        <v>-6.425807642151194</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.980834775372914</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.44100919056382</v>
+        <v>-15.44030028456812</v>
       </c>
       <c r="F60" t="n">
-        <v>1.93367541626393</v>
+        <v>1.933807419449337</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.440557775868677</v>
+        <v>-6.443256507659214</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.965811147195057</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.30116892714945</v>
+        <v>-15.29954577686964</v>
       </c>
       <c r="F61" t="n">
-        <v>1.880932810183652</v>
+        <v>1.880610135730435</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.282667299101659</v>
+        <v>-6.283923773866456</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.890998028017952</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27674344884234</v>
+        <v>-15.27422561030588</v>
       </c>
       <c r="F62" t="n">
-        <v>1.875838465028326</v>
+        <v>1.875711350849787</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.364426160937078</v>
+        <v>-6.365834194914749</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.753490999903274</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.23163747148819</v>
+        <v>-15.22778493407706</v>
       </c>
       <c r="F63" t="n">
-        <v>1.862291027000105</v>
+        <v>1.862305694020706</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.395544689644991</v>
+        <v>-6.397984304071581</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.552569889990599</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.28258581204831</v>
+        <v>-15.27835682110843</v>
       </c>
       <c r="F64" t="n">
-        <v>1.708727321310306</v>
+        <v>1.708160196513745</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.38659291807167</v>
+        <v>-6.389169424690534</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.293522272696338</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.34021253598863</v>
+        <v>-15.33389593911658</v>
       </c>
       <c r="F65" t="n">
-        <v>1.699511543366172</v>
+        <v>1.699667991585913</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.489394065462291</v>
+        <v>-6.491999906122356</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.97808126907719</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.35064567664263</v>
+        <v>-15.34375217696028</v>
       </c>
       <c r="F66" t="n">
-        <v>1.794592948913934</v>
+        <v>1.79466139501007</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.443491179988826</v>
+        <v>-6.445036106158771</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.613254952422436</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.23714249322033</v>
+        <v>-15.22897785175259</v>
       </c>
       <c r="F67" t="n">
-        <v>1.618290472286114</v>
+        <v>1.61821713718311</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.193790043268012</v>
+        <v>-6.196860339580435</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.209634112900547</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.37294443696263</v>
+        <v>-15.36394377532064</v>
       </c>
       <c r="F68" t="n">
-        <v>1.58205315338854</v>
+        <v>1.581515362633179</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.315218306821579</v>
+        <v>-6.318361938237005</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.771743016943452</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.28783171641651</v>
+        <v>-15.2777701402844</v>
       </c>
       <c r="F69" t="n">
-        <v>1.540002805326205</v>
+        <v>1.540936605637786</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.19257268055815</v>
+        <v>-6.193110471313511</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.309631340057686</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.34175257315171</v>
+        <v>-15.33107987116124</v>
       </c>
       <c r="F70" t="n">
-        <v>1.476450605063177</v>
+        <v>1.475883480266615</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.128741806903708</v>
+        <v>-6.130203619956916</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.833297695896637</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.37024570517209</v>
+        <v>-15.35892765427518</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36827155011895</v>
+        <v>1.367640868233118</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.136236654430689</v>
+        <v>-6.137146009707935</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.343855820116015</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.48886767878405</v>
+        <v>-15.47765229703135</v>
       </c>
       <c r="F72" t="n">
-        <v>1.290453227818265</v>
+        <v>1.289886103021703</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.000693828052339</v>
+        <v>-6.001671629425722</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.849085661706115</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.60057170767932</v>
+        <v>-15.58886742523993</v>
       </c>
       <c r="F73" t="n">
-        <v>1.224955202822205</v>
+        <v>1.223894288332085</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.153108617128413</v>
+        <v>-6.153538849732701</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.354154122664549</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.7103983579377</v>
+        <v>-15.69983810310516</v>
       </c>
       <c r="F74" t="n">
-        <v>1.084894934098826</v>
+        <v>1.084758041906553</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.067653666101606</v>
+        <v>-6.067692778156542</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.854827533047642</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.97261535223782</v>
+        <v>-15.96046128116667</v>
       </c>
       <c r="F75" t="n">
-        <v>1.03083229616448</v>
+        <v>1.029986497976504</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.106438157576843</v>
+        <v>-6.105895477814615</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.354744529309307</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.99725594684707</v>
+        <v>-15.98455919601369</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8074926844700719</v>
+        <v>0.8082553695413106</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.238299561784405</v>
+        <v>-6.235380824684857</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.85172158134702</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.04556911270592</v>
+        <v>-16.03451506817983</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6653399208076529</v>
+        <v>0.665447478958725</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.178834571262119</v>
+        <v>-6.174419798061295</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.335140209340479</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.17663360879418</v>
+        <v>-16.16756939006292</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6851550656392592</v>
+        <v>0.6847150550212369</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.150810783900963</v>
+        <v>-6.146469345803142</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.805085406413161</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.30671541450218</v>
+        <v>-16.29665383837007</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3981068054620818</v>
+        <v>0.3978183540569338</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.174615358335972</v>
+        <v>-6.169604126297384</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.254824654610355</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.77329289583934</v>
+        <v>-16.76546070683855</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3772845252158911</v>
+        <v>0.3777636478888487</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.145863108951644</v>
+        <v>-6.13967362625813</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.672575834334691</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.22816609473711</v>
+        <v>-17.22226506344875</v>
       </c>
       <c r="F81" t="n">
-        <v>0.213981917847198</v>
+        <v>0.2130872295905525</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.254922185131917</v>
+        <v>-6.247715789010083</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.061272800474251</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.6585062571767</v>
+        <v>-17.65312834962309</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.09138545106030971</v>
+        <v>-0.09223613825515291</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.306613654735808</v>
+        <v>-6.299006360050888</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4170255757084181</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.1305447591842</v>
+        <v>-18.12655044057393</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1035493001451941</v>
+        <v>-0.1040675348730871</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.36434304782034</v>
+        <v>-6.354521033024707</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2653177402463444</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.90524212029495</v>
+        <v>-18.90159492117223</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1995107269290007</v>
+        <v>-0.19995562655389</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.39820919838746</v>
+        <v>-6.38724315598497</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.9744335900084297</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.59466542363296</v>
+        <v>-19.59056843587848</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3577141001355015</v>
+        <v>-0.3579829955131818</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.502902391435576</v>
+        <v>-6.490973214680304</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.706976977043327</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.24028811445028</v>
+        <v>-20.23807828334643</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5206842550372444</v>
+        <v>-0.5205180288037693</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.762337540828418</v>
+        <v>-6.74983146126285</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.458253748407757</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98997331642988</v>
+        <v>-20.98804704772432</v>
       </c>
       <c r="F87" t="n">
         <v>-0.6216666918733726</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.09817320053054</v>
+        <v>-7.084948436955535</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>3.207964246398626</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.837834665304</v>
+        <v>-21.83616262495552</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7378246060244049</v>
+        <v>-0.737242814207242</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.399306689491299</v>
+        <v>-7.383040963645073</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>3.94416926798264</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.82078905192472</v>
+        <v>-22.82055926860198</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9494501572656854</v>
+        <v>-0.9492643750047426</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.475575196615172</v>
+        <v>-7.459441473954353</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>4.651237358560734</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86813165898271</v>
+        <v>-23.87092328190372</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.195039639211424</v>
+        <v>-1.195636098049188</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.839199971348839</v>
+        <v>-7.823159139818491</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>5.301354238413342</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.07566746504203</v>
+        <v>-25.07930488615102</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.118893357259224</v>
+        <v>-1.12026227918196</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.212104081115909</v>
+        <v>-8.195696574070542</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>5.874756961497092</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.33922151178247</v>
+        <v>-26.3437682881687</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.327189494824135</v>
+        <v>-1.329482439044718</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.49965590900038</v>
+        <v>-8.483893750861444</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>6.349251728826284</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.58858277158825</v>
+        <v>-27.59540538067103</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.621937940816703</v>
+        <v>-1.622558844688802</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.80219743193881</v>
+        <v>-8.787892197846217</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>6.698541173252999</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.08135790528399</v>
+        <v>-29.08977677510882</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.862403743565915</v>
+        <v>-1.863269097781359</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.137265517562826</v>
+        <v>-9.123072730628172</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>6.911682331831527</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.71837096407089</v>
+        <v>-30.72583892206011</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.121325547237731</v>
+        <v>-2.122239791521844</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.403618611672352</v>
+        <v>-9.391171200189186</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>6.97014515469385</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.55078051580435</v>
+        <v>-32.55991806963861</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.14243627888907</v>
+        <v>-2.142631839163746</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.753285271800976</v>
+        <v>-9.741483209224244</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>6.878541468285636</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.27058401687559</v>
+        <v>-34.2794697868562</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.508613115207265</v>
+        <v>-2.506706402529169</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.11527222923423</v>
+        <v>-10.10377817409011</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>6.618168277276029</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.25487056692975</v>
+        <v>-36.26432590621037</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.901699045320961</v>
+        <v>-2.900266566308955</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.53124360049195</v>
+        <v>-10.5229909569006</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>6.23012085992547</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.28283061532608</v>
+        <v>-38.2924986264054</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.180592442044124</v>
+        <v>-3.178480391077617</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.85988753109284</v>
+        <v>-10.85310158956156</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>5.666596493439897</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.48104054984898</v>
+        <v>-40.49177191992185</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.54426610684646</v>
+        <v>-3.541704267248196</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.05182016267419</v>
+        <v>-11.0434990729867</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>5.034484118742368</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.39176710258354</v>
+        <v>-42.40303137440492</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.970709730813116</v>
+        <v>-3.968935021320426</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.29389444868261</v>
+        <v>-11.28733340146721</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>4.19423948211647</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.6612832022604</v>
+        <v>-44.67183856808607</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.21871438215111</v>
+        <v>-4.215458303577745</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.4394499611244</v>
+        <v>-11.4321213398309</v>
       </c>
     </row>
   </sheetData>
